--- a/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,98%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>23,0; 28,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>31,49; 37,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>27,43; 33,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>33,19; 40,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>30,88; 36,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>39,86; 45,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>35,44; 41,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>47,27; 53,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>28,23; 31,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>36,93; 41,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>32,91; 37,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>42,59; 47,28</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,43%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,37; 7,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>8,06; 10,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,32; 12,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>14,03; 17,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,86; 7,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,89; 9,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,28; 12,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>12,59; 33,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,41; 7,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,92; 9,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>9,51; 11,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,94; 24,91</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,67; 10,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>6,86; 12,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>7,05; 12,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>14,4; 19,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,1; 8,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,0; 9,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,4; 8,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,63; 12,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,43; 8,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>6,28; 10,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,81; 9,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>11,94; 15,12</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,33%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,61; 13,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,44; 18,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>13,66; 16,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,87; 20,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,53; 18,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>19,57; 22,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,44; 19,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>20,56; 32,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>13,76; 15,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,96; 19,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,34; 17,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>19,8; 25,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,11%</t>
+          <t>49,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>44,49%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,19; 40,82</t>
+          <t>32,71; 40,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,27; 53,06</t>
+          <t>47,13; 52,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,59; 47,28</t>
+          <t>42,14; 46,83</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>17,12%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,03; 17,17</t>
+          <t>10,06; 15,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 33,38</t>
+          <t>12,1; 45,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 24,91</t>
+          <t>12,63; 30,8</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,45%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,4; 19,8</t>
+          <t>14,2; 19,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,15</t>
+          <t>8,48; 11,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,94; 15,12</t>
+          <t>11,85; 15,01</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 20,61</t>
+          <t>13,71; 19,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 32,96</t>
+          <t>19,94; 41,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 25,73</t>
+          <t>18,29; 28,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,0; 28,22</t>
+          <t>22,87; 27,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,49; 37,83</t>
+          <t>31,77; 38,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,43; 33,94</t>
+          <t>27,36; 33,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,71; 40,4</t>
+          <t>33,06; 40,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,88; 36,18</t>
+          <t>30,93; 36,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,86; 45,25</t>
+          <t>39,89; 45,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,44; 41,99</t>
+          <t>35,43; 41,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,13; 52,69</t>
+          <t>47,11; 52,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,23; 31,91</t>
+          <t>28,13; 31,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,93; 41,21</t>
+          <t>37,03; 41,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,91; 37,43</t>
+          <t>32,82; 37,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,14; 46,83</t>
+          <t>42,26; 47,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,75</t>
+          <t>5,35; 7,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 10,82</t>
+          <t>8,06; 10,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 12,03</t>
+          <t>9,39; 11,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,93</t>
+          <t>9,79; 16,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,37</t>
+          <t>4,78; 7,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 9,66</t>
+          <t>6,96; 9,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,31</t>
+          <t>9,27; 12,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 45,99</t>
+          <t>12,12; 43,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,04</t>
+          <t>5,35; 7,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 9,88</t>
+          <t>7,88; 9,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 11,64</t>
+          <t>9,66; 11,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,63; 30,8</t>
+          <t>12,59; 31,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,66</t>
+          <t>5,64; 10,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 12,76</t>
+          <t>6,82; 12,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 12,31</t>
+          <t>7,15; 12,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,2; 19,58</t>
+          <t>14,27; 19,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,51</t>
+          <t>3,96; 8,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,37</t>
+          <t>4,1; 9,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,04</t>
+          <t>3,46; 8,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 11,92</t>
+          <t>8,52; 12,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,64</t>
+          <t>5,43; 8,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,36</t>
+          <t>6,35; 10,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,32</t>
+          <t>5,84; 9,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,85; 15,01</t>
+          <t>11,82; 15,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,82</t>
+          <t>11,59; 13,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,44; 18,05</t>
+          <t>15,31; 18,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 16,11</t>
+          <t>13,73; 16,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 19,55</t>
+          <t>13,84; 19,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,1</t>
+          <t>15,41; 18,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,57; 22,37</t>
+          <t>19,6; 22,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,44; 19,16</t>
+          <t>16,37; 19,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,94; 41,86</t>
+          <t>19,7; 37,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 15,46</t>
+          <t>13,84; 15,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 19,78</t>
+          <t>17,87; 19,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,34; 17,2</t>
+          <t>15,48; 17,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,29; 28,92</t>
+          <t>18,51; 29,18</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>262018</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>338371</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>230394</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>188107</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>440224</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>566765</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>384045</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>375088</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>702241</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>905136</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>614439</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>563194</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>235941; 287674</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>309619; 372422</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>206402; 254124</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>169895; 208187</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>406720; 476771</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>532306; 601593</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>352382; 417485</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>354314; 397131</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>660217; 745489</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>855015; 959426</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>573973; 654766</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>534973; 595940</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>108341</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>183774</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>219934</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>314896</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>95125</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>145071</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>213097</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>460172</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>203466</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>328845</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>433031</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>775067</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>90612; 130102</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>157892; 211609</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>194936; 248421</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>224060; 366470</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>75951; 114562</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>121917; 170269</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>184277; 243650</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>271119; 973320</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>175595; 232112</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>292516; 363611</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>392663; 477935</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>569675; 1427522</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43204</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45874</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51307</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>108967</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28035</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29705</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29926</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66792</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>71239</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>75579</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>81233</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>175758</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31090; 58556</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32775; 61906</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39075; 67309</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>92259; 128964</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18883; 39550</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18763; 43923</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19010; 44162</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56300; 79584</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>55824; 90480</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59572; 95208</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>63986; 102079</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>154494; 196446</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2243</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>413562</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>568019</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>501635</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>611969</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>563384</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>741541</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>627068</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>902051</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>976946</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1309560</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1128703</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1514020</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>379776; 455223</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>522824; 617190</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>463584; 546225</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>477531; 679271</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>520780; 611006</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>694437; 795031</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>578283; 676429</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>719005; 1357333</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>920899; 1037997</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1243256; 1374023</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1069920; 1193793</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1314130; 2071342</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>